--- a/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,32 +48,6 @@
           </rPr>
           <t xml:space="preserve">
 应用于最终报告的字数。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-测试过程中完成的相关的文档。</t>
         </r>
       </text>
     </comment>
@@ -99,11 +73,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-参与修订的报告版本。</t>
+测试过程中完成的相关的文档。</t>
         </r>
       </text>
     </comment>
     <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参与修订的报告版本。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,36 +162,36 @@
           </rPr>
           <t xml:space="preserve">
 测试用例名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预期测试结果</t>
         </r>
       </text>
     </comment>
     <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期测试结果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>测试需求报告工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>张3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +376,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,112 +403,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -633,6 +560,127 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
@@ -652,29 +700,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:F15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:F15"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="14"/>
-    <tableColumn id="2" name="测试样例个数" dataDxfId="13"/>
-    <tableColumn id="3" name="完成报告字数" dataDxfId="12"/>
-    <tableColumn id="4" name="完成相关文档" dataDxfId="11"/>
-    <tableColumn id="5" name="完成报告修订" dataDxfId="10"/>
-    <tableColumn id="6" name="总耗时(h)" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:G15"/>
+  <tableColumns count="7">
+    <tableColumn id="7" name="序号" dataDxfId="1"/>
+    <tableColumn id="1" name="姓名" dataDxfId="7"/>
+    <tableColumn id="2" name="测试样例个数" dataDxfId="6"/>
+    <tableColumn id="3" name="完成报告字数" dataDxfId="5"/>
+    <tableColumn id="4" name="完成相关文档" dataDxfId="4"/>
+    <tableColumn id="5" name="完成报告修订" dataDxfId="3"/>
+    <tableColumn id="6" name="总耗时(h)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A2:E12"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="测试用例" dataDxfId="6"/>
-    <tableColumn id="2" name="预期测试情况" dataDxfId="5"/>
-    <tableColumn id="3" name="实际测试情况" dataDxfId="4"/>
-    <tableColumn id="4" name="有无bug" dataDxfId="3"/>
-    <tableColumn id="5" name="测试人员" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:F12"/>
+  <tableColumns count="6">
+    <tableColumn id="6" name="序号" dataDxfId="0"/>
+    <tableColumn id="1" name="测试用例" dataDxfId="14"/>
+    <tableColumn id="2" name="预期测试情况" dataDxfId="13"/>
+    <tableColumn id="3" name="实际测试情况" dataDxfId="12"/>
+    <tableColumn id="4" name="有无bug" dataDxfId="11"/>
+    <tableColumn id="5" name="测试人员" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -943,75 +993,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="2">
         <v>8</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,94 +1118,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A7CE8-C191-4C21-8D68-2C83F61DD3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试需求报告工作量统计表" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,12 +135,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>测试需求报告工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,13 +318,29 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测试报告单元测试1-5内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对软件登录、注册函数部分的单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘安佶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,10 +428,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,6 +464,111 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
         <scheme val="none"/>
@@ -576,111 +698,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
@@ -700,31 +717,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="序号" dataDxfId="1"/>
-    <tableColumn id="1" name="姓名" dataDxfId="7"/>
-    <tableColumn id="2" name="测试样例个数" dataDxfId="6"/>
-    <tableColumn id="3" name="完成报告字数" dataDxfId="5"/>
-    <tableColumn id="4" name="完成相关文档" dataDxfId="4"/>
-    <tableColumn id="5" name="完成报告修订" dataDxfId="3"/>
-    <tableColumn id="6" name="总耗时(h)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="序号" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试样例个数" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成报告字数" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="完成相关文档" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完成报告修订" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" name="序号" dataDxfId="0"/>
-    <tableColumn id="1" name="测试用例" dataDxfId="14"/>
-    <tableColumn id="2" name="预期测试情况" dataDxfId="13"/>
-    <tableColumn id="3" name="实际测试情况" dataDxfId="12"/>
-    <tableColumn id="4" name="有无bug" dataDxfId="11"/>
-    <tableColumn id="5" name="测试人员" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="序号" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="测试用例" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="预期测试情况" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="实际测试情况" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="有无bug" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="测试人员" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -992,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1010,18 +1027,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1067,40 +1084,40 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1117,11 +1134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1134,13 +1151,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1182,13 +1199,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1224,9 +1258,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A7CE8-C191-4C21-8D68-2C83F61DD3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试需求报告工作量统计表" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,12 +134,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>测试需求报告工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,13 +333,25 @@
   </si>
   <si>
     <t>潘安佶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对前端页面响应式布局的测试内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,31 +728,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:G15"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="序号" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试样例个数" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成报告字数" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="完成相关文档" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完成报告修订" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="总耗时(h)" dataDxfId="8"/>
+    <tableColumn id="7" name="序号" dataDxfId="14"/>
+    <tableColumn id="1" name="姓名" dataDxfId="13"/>
+    <tableColumn id="2" name="测试样例个数" dataDxfId="12"/>
+    <tableColumn id="3" name="完成报告字数" dataDxfId="11"/>
+    <tableColumn id="4" name="完成相关文档" dataDxfId="10"/>
+    <tableColumn id="5" name="完成报告修订" dataDxfId="9"/>
+    <tableColumn id="6" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F12"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="序号" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="测试用例" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="预期测试情况" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="实际测试情况" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="有无bug" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="测试人员" dataDxfId="0"/>
+    <tableColumn id="6" name="序号" dataDxfId="5"/>
+    <tableColumn id="1" name="测试用例" dataDxfId="4"/>
+    <tableColumn id="2" name="预期测试情况" dataDxfId="3"/>
+    <tableColumn id="3" name="实际测试情况" dataDxfId="2"/>
+    <tableColumn id="4" name="有无bug" dataDxfId="1"/>
+    <tableColumn id="5" name="测试人员" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1009,24 +1020,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.9140625" style="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1048,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1083,40 +1094,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
@@ -1134,23 +1145,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1170,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1224,31 +1235,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="F12" s="1"/>
     </row>

--- a/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024E537-9EB9-4481-8E10-9A2D2EF73EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试需求报告工作量统计表" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,12 +135,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>测试需求报告工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,13 +346,29 @@
   </si>
   <si>
     <t>完成对前端页面响应式布局的测试内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟秋宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成非功能性测试中性能、可维护性、可访问性、安全性、界面美观等测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测试规格说明书中非功能性测试部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,31 +745,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="序号" dataDxfId="14"/>
-    <tableColumn id="1" name="姓名" dataDxfId="13"/>
-    <tableColumn id="2" name="测试样例个数" dataDxfId="12"/>
-    <tableColumn id="3" name="完成报告字数" dataDxfId="11"/>
-    <tableColumn id="4" name="完成相关文档" dataDxfId="10"/>
-    <tableColumn id="5" name="完成报告修订" dataDxfId="9"/>
-    <tableColumn id="6" name="总耗时(h)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="序号" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试样例个数" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成报告字数" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="完成相关文档" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完成报告修订" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" name="序号" dataDxfId="5"/>
-    <tableColumn id="1" name="测试用例" dataDxfId="4"/>
-    <tableColumn id="2" name="预期测试情况" dataDxfId="3"/>
-    <tableColumn id="3" name="实际测试情况" dataDxfId="2"/>
-    <tableColumn id="4" name="有无bug" dataDxfId="1"/>
-    <tableColumn id="5" name="测试人员" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="序号" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="测试用例" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="预期测试情况" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="实际测试情况" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="有无bug" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="测试人员" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,24 +1037,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.9140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1065,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1071,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1094,40 +1111,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
@@ -1145,23 +1162,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1187,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1210,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1224,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1235,7 +1252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1249,27 +1266,44 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="F12" s="1"/>
     </row>

--- a/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024E537-9EB9-4481-8E10-9A2D2EF73EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试需求报告工作量统计表" sheetId="1" r:id="rId1"/>
     <sheet name="测试需求分析表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -42,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,15 +42,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -68,9 +56,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,15 +64,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -94,9 +78,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,15 +86,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -120,9 +100,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -135,20 +113,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -156,9 +132,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -166,15 +140,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -182,9 +154,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -192,15 +162,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -208,9 +176,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -223,164 +189,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>测试需求报告工作量统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试样例个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成报告字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成相关文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成报告修订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总耗时(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张3</t>
+  </si>
+  <si>
+    <t>1500左右</t>
+  </si>
+  <si>
+    <t>被测软件执行结果报告</t>
+  </si>
+  <si>
+    <t>V1.0</t>
   </si>
   <si>
     <t>测试需求分析表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
   </si>
   <si>
     <t>预期测试情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际测试情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有无bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被测软件执行结果报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+  </si>
+  <si>
+    <t>用例101上传图片+图片风格转换</t>
   </si>
   <si>
     <t>图片可转换风格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与预期结果一致</t>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与预期结果一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例101上传图片+图片风格转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对软件登录、注册函数部分的单元测试</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>潘安佶</t>
   </si>
   <si>
     <t>完成测试报告单元测试1-5内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成对软件登录、注册函数部分的单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘安佶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对前端页面响应式布局的测试内容</t>
   </si>
   <si>
     <t>王康明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成对前端页面响应式布局的测试内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成非功能性测试中性能、可维护性、可访问性、安全性、界面美观等测试</t>
   </si>
   <si>
     <t>牟秋宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成非功能性测试中性能、可维护性、可访问性、安全性、界面美观等测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成测试规格说明书中非功能性测试部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对查看自己作品，分享作品部分的单元测试</t>
+  </si>
+  <si>
+    <t>张祥国</t>
+  </si>
+  <si>
+    <t>完成部分系统测试</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -388,7 +315,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -396,29 +322,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -427,16 +336,364 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -444,292 +701,481 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="13">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,39 +1183,36 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0">
+  <autoFilter ref="A2:G15"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="序号" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="测试样例个数" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成报告字数" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="完成相关文档" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完成报告修订" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="总耗时(h)" dataDxfId="8"/>
+    <tableColumn id="1" name="序号" dataDxfId="0"/>
+    <tableColumn id="2" name="姓名" dataDxfId="1"/>
+    <tableColumn id="3" name="测试样例个数" dataDxfId="2"/>
+    <tableColumn id="4" name="完成报告字数" dataDxfId="3"/>
+    <tableColumn id="5" name="完成相关文档" dataDxfId="4"/>
+    <tableColumn id="6" name="完成报告修订" dataDxfId="5"/>
+    <tableColumn id="7" name="总耗时(h)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0">
+  <autoFilter ref="A2:F12"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="序号" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="测试用例" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="预期测试情况" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="实际测试情况" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="有无bug" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="测试人员" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="7"/>
+    <tableColumn id="2" name="测试用例" dataDxfId="8"/>
+    <tableColumn id="3" name="预期测试情况" dataDxfId="9"/>
+    <tableColumn id="4" name="实际测试情况" dataDxfId="10"/>
+    <tableColumn id="5" name="有无bug" dataDxfId="11"/>
+    <tableColumn id="6" name="测试人员" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -818,7 +1261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -853,7 +1296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1027,133 +1470,128 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="43.2" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1162,148 +1600,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" ht="20.4" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="57.6" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -1311,9 +1770,9 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验4 软件测试工作统计.xlsx
@@ -9,115 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27684" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27684" windowHeight="11280"/>
   </bookViews>
   <sheets>
-    <sheet name="测试需求报告工作量统计表" sheetId="1" r:id="rId1"/>
-    <sheet name="测试需求分析表" sheetId="2" r:id="rId2"/>
+    <sheet name="测试需求分析表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-应用于最终报告的字数。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-测试过程中完成的相关的文档。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-参与修订的报告版本。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-测试花费总时长</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -194,44 +95,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
-  <si>
-    <t>测试需求报告工作量统计表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>测试样例个数</t>
-  </si>
-  <si>
-    <t>完成报告字数</t>
-  </si>
-  <si>
-    <t>完成相关文档</t>
-  </si>
-  <si>
-    <t>完成报告修订</t>
-  </si>
-  <si>
-    <t>总耗时(h)</t>
-  </si>
-  <si>
-    <t>张3</t>
-  </si>
-  <si>
-    <t>1500左右</t>
-  </si>
-  <si>
-    <t>被测软件执行结果报告</t>
-  </si>
-  <si>
-    <t>V1.0</t>
-  </si>
-  <si>
     <t>测试需求分析表</t>
   </si>
   <si>
@@ -302,30 +170,30 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>常佳辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>完成浏览所有作品的单元测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>完成部分系统测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,12 +211,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -396,15 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,22 +287,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G15" totalsRowShown="0">
-  <autoFilter ref="A2:G15"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="序号"/>
-    <tableColumn id="2" name="姓名"/>
-    <tableColumn id="3" name="测试样例个数"/>
-    <tableColumn id="4" name="完成报告字数"/>
-    <tableColumn id="5" name="完成相关文档"/>
-    <tableColumn id="6" name="完成报告修订"/>
-    <tableColumn id="7" name="总耗时(h)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F13" totalsRowShown="0">
   <autoFilter ref="A2:F13"/>
   <tableColumns count="6">
@@ -716,135 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -857,32 +575,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -890,13 +608,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -904,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -915,13 +633,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
@@ -929,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -943,10 +661,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
@@ -954,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,27 +686,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -996,13 +714,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1010,13 +728,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,20 +742,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
